--- a/Speculative/ACB_MODEL.xlsx
+++ b/Speculative/ACB_MODEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Speculative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993CBB72-03EB-4FCB-B36D-D13FC5C613F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC07F5-27F0-4F3F-97E5-24B7E8A2667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Medical cannabis was flat</t>
+  </si>
+  <si>
+    <t>Q12025</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1692,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1735,9 @@
       <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2388,7 +2393,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <f t="shared" ref="D27:K27" si="4">D25+D26</f>
+        <f t="shared" ref="D27:J27" si="4">D25+D26</f>
         <v>0</v>
       </c>
       <c r="E27" s="3">
@@ -2602,12 +2607,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -2751,6 +2750,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
   <ds:schemaRefs>
@@ -2760,22 +2765,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2791,4 +2780,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Speculative/ACB_MODEL.xlsx
+++ b/Speculative/ACB_MODEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Speculative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC07F5-27F0-4F3F-97E5-24B7E8A2667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9175F-1F08-4B3D-9FD8-30127C695EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex Quach:</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Long Term Debt</t>
@@ -88,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex Quach:</t>
         </r>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Holiday Season
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex Quach:</t>
         </r>
@@ -122,14 +122,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Holiday season</t>
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{2E7996E8-8499-42E0-A3FA-4295F516D1F3}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{2E7996E8-8499-42E0-A3FA-4295F516D1F3}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Price</t>
   </si>
@@ -363,6 +363,21 @@
   </si>
   <si>
     <t>Q12025</t>
+  </si>
+  <si>
+    <t>Q2025</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Plant Propagation</t>
+  </si>
+  <si>
+    <t>Medical Canada</t>
+  </si>
+  <si>
+    <t>Medical International</t>
   </si>
 </sst>
 </file>
@@ -372,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,14 +414,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -439,6 +454,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -449,19 +465,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -643,13 +646,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>534587</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>153083</xdr:rowOff>
@@ -1689,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,14 +1703,15 @@
     <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1738,8 +1742,11 @@
       <c r="L2" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>38</v>
@@ -1763,747 +1770,849 @@
       <c r="K3" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <v>90</v>
+      </c>
+      <c r="M3" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8">
+      <c r="C9" s="4"/>
+      <c r="D9" s="8">
         <v>63</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E9" s="8">
         <v>74</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F9" s="8">
         <v>63</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" ref="G6:I6" si="0" xml:space="preserve"> G3 + G4</f>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:I9" si="0" xml:space="preserve"> G3 + G4</f>
         <v>64</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J9" s="8">
         <f xml:space="preserve"> J3 + J4</f>
         <v>81</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K9" s="8">
         <f xml:space="preserve"> K3 + K4</f>
         <v>88</v>
       </c>
-      <c r="L6">
+      <c r="L9">
         <v>90.5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M9">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9">
+      <c r="C10" s="3"/>
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G10" s="9">
         <v>39</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H10" s="9">
         <v>16</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I10" s="9">
         <v>38</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J10" s="9">
         <v>38</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K10" s="9">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M10" s="9">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <v>20</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E11" s="17">
         <v>14</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G11" s="17">
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H11" s="17">
         <v>24</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I11" s="17">
         <v>30</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J11" s="17">
         <v>39</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K11" s="17">
         <v>47</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L11" s="17">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M11" s="17">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10">
+      <c r="C12" s="3"/>
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E12" s="10">
         <v>17</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F12" s="10">
         <v>18</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G12" s="10">
         <v>22</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H12" s="10">
         <v>21</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I12" s="10">
         <v>33</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J12" s="10">
         <v>36</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K12" s="10">
         <v>38</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M12" s="10">
+        <v>-37</v>
+      </c>
+      <c r="O12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>-7</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E13" s="15">
         <v>-28</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F13" s="15">
         <v>-34</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G13" s="15">
         <v>-27</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H13" s="15">
         <v>-43</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I13" s="15">
         <v>-47</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J13" s="15">
         <v>-38</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K13" s="18">
         <v>-69</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L13" s="18">
         <v>-19</v>
       </c>
-      <c r="O10" t="s">
+      <c r="M13" s="18">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:K11" si="1" xml:space="preserve"> D6 - D7</f>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14:K14" si="1" xml:space="preserve"> D9 - D10</f>
         <v>63</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K14" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11">
+      <c r="C15" s="3"/>
+      <c r="D15" s="11">
         <v>49</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E15" s="11">
         <v>40</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F15" s="11">
         <v>45</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G15" s="11">
         <v>41</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H15" s="11">
         <v>43</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I15" s="11">
         <v>42</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J15" s="11">
         <v>43</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K15" s="11">
         <v>41</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L15" s="11">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="M15" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11">
+      <c r="C16" s="3"/>
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G16" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H16" s="11">
         <v>43</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I16" s="11">
         <v>39</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J16" s="11">
         <v>40</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K16" s="11">
         <v>38</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L16" s="11">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H15" s="10">
-        <v>7</v>
-      </c>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H18" s="10">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>37</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <v>-17</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H20" s="11">
         <v>-14</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I20" s="11">
         <v>7</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J20" s="11">
         <v>0.6</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K20" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <f t="shared" ref="D19:K19" si="2" xml:space="preserve"> D17 - D18</f>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:K22" si="2" xml:space="preserve"> D20 - D21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="2"/>
         <v>-17</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J22" s="3">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L19">
+      <c r="L22">
         <v>-17</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="M22">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="e">
-        <f xml:space="preserve"> D19/D21</f>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="e">
+        <f xml:space="preserve"> D22/D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="5" t="e">
-        <f t="shared" ref="E20:K20" si="3" xml:space="preserve"> E19/E21</f>
+      <c r="E23" s="5" t="e">
+        <f t="shared" ref="E23:K23" si="3" xml:space="preserve"> E22/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="5" t="e">
+      <c r="F23" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>-0.36170212765957449</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="3"/>
         <v>-0.2978723404255319</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="3"/>
         <v>0.13725490196078433</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>1.0714285714285714E-2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>0.58181818181818179</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>47</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H24" s="3">
         <v>47</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I24" s="11">
         <v>51</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J24" s="11">
         <v>56</v>
       </c>
-      <c r="K21">
+      <c r="K24">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="12" t="e">
-        <f xml:space="preserve"> D6 /#REF! - 1</f>
+      <c r="D26" s="12" t="e">
+        <f xml:space="preserve"> D9 /#REF! - 1</f>
         <v>#REF!</v>
       </c>
-      <c r="E23" s="12" t="e">
-        <f xml:space="preserve"> E6 /#REF! - 1</f>
+      <c r="E26" s="12" t="e">
+        <f xml:space="preserve"> E9 /#REF! - 1</f>
         <v>#REF!</v>
       </c>
-      <c r="F23" s="12" t="e">
-        <f xml:space="preserve"> F6 /#REF! - 1</f>
+      <c r="F26" s="12" t="e">
+        <f xml:space="preserve"> F9 /#REF! - 1</f>
         <v>#REF!</v>
       </c>
-      <c r="G23" s="12" t="e">
-        <f xml:space="preserve"> G6 /#REF! - 1</f>
+      <c r="G26" s="12" t="e">
+        <f xml:space="preserve"> G9 /#REF! - 1</f>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="19">
-        <f xml:space="preserve"> H6 / D6 - 1</f>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26:M26" si="4" xml:space="preserve"> H9 / D9 - 1</f>
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="I23" s="19">
-        <f xml:space="preserve"> I6 / E6 - 1</f>
+      <c r="I26" s="19">
+        <f t="shared" si="4"/>
         <v>0.12162162162162171</v>
       </c>
-      <c r="J23" s="19">
-        <f xml:space="preserve"> J6 / F6 - 1</f>
+      <c r="J26" s="19">
+        <f t="shared" si="4"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="K23" s="19">
-        <f xml:space="preserve"> K6 / G6 - 1</f>
+      <c r="K26" s="19">
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="L26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.35074626865671643</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.18072289156626509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="11">
+      <c r="C28" s="3"/>
+      <c r="D28" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E28" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F28" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G28" s="11">
         <v>-5</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H28" s="11">
         <v>-21</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I28" s="11">
         <v>8</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J28" s="11">
         <v>-24</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K28" s="11">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="11">
+      <c r="C29" s="3"/>
+      <c r="D29" s="11">
         <v>0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E29" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G29" s="11">
         <v>-2</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H29" s="11">
         <v>-6</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I29" s="11">
         <v>-5</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J29" s="11">
         <v>-4</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K29" s="11">
         <v>-4</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:J27" si="4">D25+D26</f>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:J30" si="5">D28+D29</f>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="4"/>
+      <c r="E30" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="4"/>
+      <c r="F30" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="4"/>
+      <c r="G30" s="3">
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
-      <c r="H27" s="3">
-        <f>H25+H26</f>
+      <c r="H30" s="3">
+        <f>H28+H29</f>
         <v>-27</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="4"/>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="4"/>
+      <c r="J30" s="3">
+        <f t="shared" si="5"/>
         <v>-28</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K30" s="3">
         <v>27</v>
       </c>
-      <c r="L27">
+      <c r="L30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G34" s="13">
         <v>0.36699999999999999</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J34" s="20">
         <v>0.52</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K34" s="20">
         <v>0.9</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G35" s="20">
         <v>0.32</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J35" s="20">
         <v>0.48</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K35" s="20">
         <v>0.54</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9">
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9">
         <v>4.88</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K38" s="11">
         <v>6.73</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9">
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9">
         <v>68.61</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K39" s="11">
         <v>75.650000000000006</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2598,6 +2707,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2606,7 +2721,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -2750,13 +2865,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2764,7 +2889,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2780,20 +2905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Speculative/ACB_MODEL.xlsx
+++ b/Speculative/ACB_MODEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Speculative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9175F-1F08-4B3D-9FD8-30127C695EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF5B85-FDF8-41C6-A5C8-DC1778111C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>Q12025</t>
   </si>
   <si>
-    <t>Q2025</t>
-  </si>
-  <si>
     <t>Consumer</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Medical International</t>
+  </si>
+  <si>
+    <t>Q22025</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1743,7 @@
         <v>67</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1798,7 +1798,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1816,7 +1816,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1834,7 +1834,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2713,15 +2713,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -2865,6 +2856,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
@@ -2882,14 +2882,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2905,4 +2897,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>